--- a/Enrollment_Status_Course_College_Pivot.xlsx
+++ b/Enrollment_Status_Course_College_Pivot.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/753e9d322bd3a877/Rich Files/SSU/2018/SonomaStateICLM/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C47BB46C-EDA0-47EF-878A-73226A91DF65}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{47F28B57-8F66-4972-B4D9-3D59AD760930}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
     <sheet name="Enrollment_Status_Course_Colleg" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -105,11 +105,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +239,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,18 +595,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -645,96 +650,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -753,7 +674,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard McGowan" refreshedDate="43437.652143634259" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="35">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard McGowan" refreshedDate="43456.559258680558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I36" sheet="Enrollment_Status_Course_Colleg"/>
   </cacheSource>
@@ -780,25 +701,25 @@
       </sharedItems>
     </cacheField>
     <cacheField name="HeadCount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.14285714285714299" maxValue="2056.2857142857101"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.14285714285714299" maxValue="2062"/>
     </cacheField>
     <cacheField name="Arts and Humanities" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="477.57142857142901"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="481.28571428571399"/>
     </cacheField>
     <cacheField name="Business and Economics" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="331"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="331.71428571428601"/>
     </cacheField>
     <cacheField name="Education" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="104"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="103.28571428571399"/>
     </cacheField>
     <cacheField name="Science &amp; Technology" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="637.71428571428601"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="638.857142857143"/>
     </cacheField>
     <cacheField name="Social Sciences" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="676.857142857143"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="677.857142857143"/>
     </cacheField>
     <cacheField name="University-wide" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="41.285714285714299"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="40.857142857142897"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -814,57 +735,57 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="341.857142857143"/>
-    <n v="70.571428571428598"/>
-    <n v="16.1428571428571"/>
-    <n v="2.5714285714285698"/>
-    <n v="82.714285714285694"/>
-    <n v="68.571428571428598"/>
-    <n v="8.5714285714285694"/>
+    <n v="309.28571428571399"/>
+    <n v="63.857142857142897"/>
+    <n v="14.285714285714301"/>
+    <n v="2.4285714285714302"/>
+    <n v="74.142857142857096"/>
+    <n v="62.142857142857103"/>
+    <n v="7.71428571428571"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="1"/>
+    <n v="0.85714285714285698"/>
     <n v="0.14285714285714299"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0.28571428571428598"/>
-    <n v="0.28571428571428598"/>
+    <n v="0.14285714285714299"/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="11.1428571428571"/>
+    <n v="10.285714285714301"/>
+    <n v="2.1428571428571401"/>
+    <n v="0.14285714285714299"/>
+    <n v="0"/>
+    <n v="1.5714285714285701"/>
     <n v="2.28571428571429"/>
-    <n v="0.14285714285714299"/>
-    <n v="0"/>
-    <n v="1.8571428571428601"/>
-    <n v="2.4285714285714302"/>
     <n v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="215.57142857142901"/>
-    <n v="66.142857142857096"/>
-    <n v="7"/>
+    <n v="201.71428571428601"/>
+    <n v="61.857142857142897"/>
+    <n v="6.5714285714285703"/>
     <n v="1.4285714285714299"/>
-    <n v="65.571428571428598"/>
-    <n v="24.571428571428601"/>
-    <n v="15.5714285714286"/>
+    <n v="61.142857142857103"/>
+    <n v="23"/>
+    <n v="14.1428571428571"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="1361.1428571428601"/>
-    <n v="477.57142857142901"/>
-    <n v="17.714285714285701"/>
-    <n v="39.857142857142897"/>
-    <n v="141.142857142857"/>
-    <n v="159.142857142857"/>
-    <n v="29.714285714285701"/>
+    <n v="1379"/>
+    <n v="481.28571428571399"/>
+    <n v="18.571428571428601"/>
+    <n v="40.142857142857103"/>
+    <n v="145.57142857142901"/>
+    <n v="162.857142857143"/>
+    <n v="29.8571428571429"/>
   </r>
   <r>
     <x v="1"/>
@@ -892,9 +813,9 @@
     <x v="1"/>
     <x v="2"/>
     <n v="117.71428571428601"/>
-    <n v="34.571428571428598"/>
+    <n v="34.714285714285701"/>
     <n v="0.57142857142857095"/>
-    <n v="4.71428571428571"/>
+    <n v="4.5714285714285703"/>
     <n v="8.1428571428571406"/>
     <n v="10.285714285714301"/>
     <n v="0"/>
@@ -902,13 +823,13 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="178.57142857142901"/>
-    <n v="85.285714285714306"/>
+    <n v="184.28571428571399"/>
+    <n v="87.285714285714306"/>
     <n v="3"/>
     <n v="2.28571428571429"/>
-    <n v="43"/>
-    <n v="13.8571428571429"/>
-    <n v="7.1428571428571397"/>
+    <n v="44.857142857142897"/>
+    <n v="14.8571428571429"/>
+    <n v="7.8571428571428603"/>
   </r>
   <r>
     <x v="1"/>
@@ -924,13 +845,13 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="1342.2857142857099"/>
-    <n v="143.142857142857"/>
-    <n v="331"/>
+    <n v="1347.7142857142901"/>
+    <n v="144.142857142857"/>
+    <n v="331.71428571428601"/>
     <n v="8.1428571428571406"/>
-    <n v="127.571428571429"/>
-    <n v="123.71428571428601"/>
-    <n v="18.428571428571399"/>
+    <n v="129.42857142857099"/>
+    <n v="124.428571428571"/>
+    <n v="18.285714285714299"/>
   </r>
   <r>
     <x v="2"/>
@@ -946,7 +867,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="5.8571428571428603"/>
+    <n v="5.71428571428571"/>
     <n v="0.42857142857142899"/>
     <n v="1.28571428571429"/>
     <n v="0.14285714285714299"/>
@@ -957,24 +878,24 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="131.42857142857099"/>
-    <n v="11.1428571428571"/>
-    <n v="31.285714285714299"/>
+    <n v="132.142857142857"/>
+    <n v="11.285714285714301"/>
+    <n v="31.428571428571399"/>
     <n v="2.4285714285714302"/>
-    <n v="10.714285714285699"/>
-    <n v="16.428571428571399"/>
+    <n v="10.8571428571429"/>
+    <n v="16.571428571428601"/>
     <n v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <n v="151.57142857142901"/>
-    <n v="40.142857142857103"/>
-    <n v="28.285714285714299"/>
+    <n v="153.57142857142901"/>
+    <n v="40.857142857142897"/>
+    <n v="28.428571428571399"/>
     <n v="0.14285714285714299"/>
-    <n v="40.285714285714299"/>
-    <n v="7.28571428571429"/>
-    <n v="11"/>
+    <n v="41.285714285714299"/>
+    <n v="7.4285714285714297"/>
+    <n v="11.1428571428571"/>
   </r>
   <r>
     <x v="2"/>
@@ -990,13 +911,13 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="355.857142857143"/>
-    <n v="47.857142857142897"/>
-    <n v="2.71428571428571"/>
-    <n v="104"/>
-    <n v="37.285714285714299"/>
-    <n v="52.285714285714299"/>
-    <n v="5.8571428571428603"/>
+    <n v="352.857142857143"/>
+    <n v="47.714285714285701"/>
+    <n v="2.5714285714285698"/>
+    <n v="103.28571428571399"/>
+    <n v="37.142857142857103"/>
+    <n v="51.714285714285701"/>
+    <n v="5.5714285714285703"/>
   </r>
   <r>
     <x v="3"/>
@@ -1023,13 +944,13 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="47.142857142857103"/>
+    <n v="46.428571428571402"/>
     <n v="14.4285714285714"/>
     <n v="0.71428571428571397"/>
-    <n v="2.1428571428571401"/>
-    <n v="12.8571428571429"/>
-    <n v="5.28571428571429"/>
-    <n v="3.8571428571428599"/>
+    <n v="2"/>
+    <n v="12.714285714285699"/>
+    <n v="5.1428571428571397"/>
+    <n v="3.71428571428571"/>
   </r>
   <r>
     <x v="3"/>
@@ -1037,7 +958,7 @@
     <n v="0.28571428571428598"/>
     <n v="0.14285714285714299"/>
     <n v="0"/>
-    <n v="0.14285714285714299"/>
+    <n v="0"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1045,13 +966,13 @@
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="1461.8571428571399"/>
-    <n v="158.28571428571399"/>
-    <n v="20.428571428571399"/>
-    <n v="8.1428571428571406"/>
-    <n v="637.71428571428601"/>
-    <n v="163"/>
-    <n v="20.8571428571429"/>
+    <n v="1464.2857142857099"/>
+    <n v="158.71428571428601"/>
+    <n v="20.1428571428571"/>
+    <n v="8"/>
+    <n v="638.857142857143"/>
+    <n v="163.57142857142901"/>
+    <n v="21.1428571428571"/>
   </r>
   <r>
     <x v="4"/>
@@ -1067,7 +988,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="5.28571428571429"/>
+    <n v="5.1428571428571397"/>
     <n v="0.42857142857142899"/>
     <n v="0"/>
     <n v="0"/>
@@ -1078,35 +999,35 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="104.857142857143"/>
-    <n v="5.71428571428571"/>
-    <n v="0.57142857142857095"/>
+    <n v="105"/>
+    <n v="5.8571428571428603"/>
+    <n v="0.42857142857142899"/>
     <n v="1.4285714285714299"/>
-    <n v="47.857142857142897"/>
+    <n v="48.142857142857103"/>
     <n v="8.71428571428571"/>
     <n v="0.14285714285714299"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <n v="240.42857142857099"/>
-    <n v="59.571428571428598"/>
+    <n v="245.71428571428601"/>
+    <n v="61.714285714285701"/>
     <n v="4.71428571428571"/>
     <n v="0.14285714285714299"/>
-    <n v="109.571428571429"/>
-    <n v="17"/>
-    <n v="13.285714285714301"/>
+    <n v="111.142857142857"/>
+    <n v="17.571428571428601"/>
+    <n v="13.8571428571429"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <n v="2056.2857142857101"/>
-    <n v="248.57142857142901"/>
-    <n v="28.571428571428601"/>
-    <n v="30.428571428571399"/>
-    <n v="212.42857142857099"/>
-    <n v="676.857142857143"/>
-    <n v="41.285714285714299"/>
+    <n v="2062"/>
+    <n v="249.71428571428601"/>
+    <n v="29.1428571428571"/>
+    <n v="30.571428571428601"/>
+    <n v="213.857142857143"/>
+    <n v="677.857142857143"/>
+    <n v="40.857142857142897"/>
   </r>
   <r>
     <x v="5"/>
@@ -1122,7 +1043,7 @@
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="8.71428571428571"/>
+    <n v="9"/>
     <n v="0.57142857142857095"/>
     <n v="0"/>
     <n v="0.14285714285714299"/>
@@ -1133,24 +1054,24 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <n v="220.857142857143"/>
-    <n v="14.285714285714301"/>
-    <n v="2"/>
+    <n v="220"/>
+    <n v="14.1428571428571"/>
+    <n v="1.8571428571428601"/>
     <n v="3.71428571428571"/>
-    <n v="10.8571428571429"/>
+    <n v="10.714285714285699"/>
     <n v="77.428571428571402"/>
     <n v="0.28571428571428598"/>
   </r>
   <r>
     <x v="5"/>
     <x v="3"/>
-    <n v="219.857142857143"/>
-    <n v="62.857142857142897"/>
-    <n v="4"/>
+    <n v="221.28571428571399"/>
+    <n v="63"/>
+    <n v="4.1428571428571397"/>
     <n v="1.8571428571428601"/>
-    <n v="60.571428571428598"/>
-    <n v="36.714285714285701"/>
-    <n v="16.428571428571399"/>
+    <n v="61.428571428571402"/>
+    <n v="36.857142857142897"/>
+    <n v="16.714285714285701"/>
   </r>
   <r>
     <x v="5"/>
@@ -1200,7 +1121,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -1404,145 +1325,9 @@
     <dataField name="Sum of Social Sciences" fld="7" baseField="0" baseItem="0"/>
     <dataField name="Sum of University-wide" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="14">
-    <format dxfId="30">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
+  <formats count="1">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="7">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="6">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="4">
-            <x v="0"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="1" count="5">
-            <x v="0"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="1" count="5">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="1" count="3">
-            <x v="0"/>
-            <x v="3"/>
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -1854,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H46"/>
+  <dimension ref="A3:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A46"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,1151 +1654,1184 @@
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>569.57142857142912</v>
-      </c>
-      <c r="C4" s="1">
-        <v>139.14285714285711</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23.285714285714242</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="5">
+        <v>522.14285714285711</v>
+      </c>
+      <c r="C4" s="5">
+        <v>128.00000000000009</v>
+      </c>
+      <c r="D4" s="5">
+        <v>21.000000000000014</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.8571428571428603</v>
+      </c>
+      <c r="F4" s="5">
+        <v>137.14285714285705</v>
+      </c>
+      <c r="G4" s="5">
+        <v>87.571428571428541</v>
+      </c>
+      <c r="H4" s="5">
+        <v>21.857142857142811</v>
+      </c>
+      <c r="I4" s="6">
+        <f>SUM(C4:H4)</f>
+        <v>399.42857142857139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>309.28571428571399</v>
+      </c>
+      <c r="C5" s="5">
+        <v>63.857142857142897</v>
+      </c>
+      <c r="D5" s="5">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.4285714285714302</v>
+      </c>
+      <c r="F5" s="5">
+        <v>74.142857142857096</v>
+      </c>
+      <c r="G5" s="5">
+        <v>62.142857142857103</v>
+      </c>
+      <c r="H5" s="5">
+        <v>7.71428571428571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="1">
-        <v>150.42857142857144</v>
-      </c>
-      <c r="G4" s="1">
-        <v>95.857142857142918</v>
-      </c>
-      <c r="H4" s="1">
-        <v>24.142857142857167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="B7" s="5">
+        <v>10.285714285714301</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.5714285714285701</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>201.71428571428601</v>
+      </c>
+      <c r="C8" s="5">
+        <v>61.857142857142897</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6.5714285714285703</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.4285714285714299</v>
+      </c>
+      <c r="F8" s="5">
+        <v>61.142857142857103</v>
+      </c>
+      <c r="G8" s="5">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14.1428571428571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1688.8571428571429</v>
+      </c>
+      <c r="C9" s="5">
+        <v>605.28571428571399</v>
+      </c>
+      <c r="D9" s="5">
+        <v>22.142857142857171</v>
+      </c>
+      <c r="E9" s="5">
+        <v>47.285714285714249</v>
+      </c>
+      <c r="F9" s="5">
+        <v>198.85714285714332</v>
+      </c>
+      <c r="G9" s="5">
+        <v>188.28571428571448</v>
+      </c>
+      <c r="H9" s="5">
+        <v>37.714285714285758</v>
+      </c>
+      <c r="I9" s="6">
+        <f>SUM(C9:H9)</f>
+        <v>1099.5714285714291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>341.857142857143</v>
-      </c>
-      <c r="C5" s="1">
-        <v>70.571428571428598</v>
-      </c>
-      <c r="D5" s="1">
-        <v>16.1428571428571</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B10" s="5">
+        <v>1379</v>
+      </c>
+      <c r="C10" s="5">
+        <v>481.28571428571399</v>
+      </c>
+      <c r="D10" s="5">
+        <v>18.571428571428601</v>
+      </c>
+      <c r="E10" s="5">
+        <v>40.142857142857103</v>
+      </c>
+      <c r="F10" s="5">
+        <v>145.57142857142901</v>
+      </c>
+      <c r="G10" s="5">
+        <v>162.857142857143</v>
+      </c>
+      <c r="H10" s="5">
+        <v>29.8571428571429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6.4285714285714297</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.5714285714285701</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>117.71428571428601</v>
+      </c>
+      <c r="C13" s="5">
+        <v>34.714285714285701</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4.5714285714285703</v>
+      </c>
+      <c r="F13" s="5">
+        <v>8.1428571428571406</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10.285714285714301</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5">
+        <v>184.28571428571399</v>
+      </c>
+      <c r="C14" s="5">
+        <v>87.285714285714306</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="F14" s="5">
+        <v>44.857142857142897</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14.8571428571429</v>
+      </c>
+      <c r="H14" s="5">
+        <v>7.8571428571428603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1640.0000000000048</v>
+      </c>
+      <c r="C16" s="5">
+        <v>196.71428571428561</v>
+      </c>
+      <c r="D16" s="5">
+        <v>393.14285714285739</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10.857142857142856</v>
+      </c>
+      <c r="F16" s="5">
+        <v>181.85714285714246</v>
+      </c>
+      <c r="G16" s="5">
+        <v>148.9999999999996</v>
+      </c>
+      <c r="H16" s="5">
+        <v>29.428571428571399</v>
+      </c>
+      <c r="I16" s="6">
+        <f>SUM(C16:H16)</f>
+        <v>960.99999999999943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1347.7142857142901</v>
+      </c>
+      <c r="C17" s="5">
+        <v>144.142857142857</v>
+      </c>
+      <c r="D17" s="5">
+        <v>331.71428571428601</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8.1428571428571406</v>
+      </c>
+      <c r="F17" s="5">
+        <v>129.42857142857099</v>
+      </c>
+      <c r="G17" s="5">
+        <v>124.428571428571</v>
+      </c>
+      <c r="H17" s="5">
+        <v>18.285714285714299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.71428571428571</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>132.142857142857</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11.285714285714301</v>
+      </c>
+      <c r="D20" s="5">
+        <v>31.428571428571399</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2.4285714285714302</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10.8571428571429</v>
+      </c>
+      <c r="G20" s="5">
+        <v>16.571428571428601</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>153.57142857142901</v>
+      </c>
+      <c r="C21" s="5">
+        <v>40.857142857142897</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28.428571428571399</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F21" s="5">
+        <v>41.285714285714299</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7.4285714285714297</v>
+      </c>
+      <c r="H21" s="5">
+        <v>11.1428571428571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>427.00000000000011</v>
+      </c>
+      <c r="C23" s="5">
+        <v>64.571428571428527</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3.4285714285714266</v>
+      </c>
+      <c r="E23" s="5">
+        <v>115.85714285714259</v>
+      </c>
+      <c r="F23" s="5">
+        <v>50.857142857142804</v>
+      </c>
+      <c r="G23" s="5">
+        <v>58.999999999999986</v>
+      </c>
+      <c r="H23" s="5">
+        <v>9.2857142857142811</v>
+      </c>
+      <c r="I23" s="6">
+        <f>SUM(C23:H23)</f>
+        <v>302.9999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5">
+        <v>352.857142857143</v>
+      </c>
+      <c r="C24" s="5">
+        <v>47.714285714285701</v>
+      </c>
+      <c r="D24" s="5">
         <v>2.5714285714285698</v>
       </c>
-      <c r="F5" s="1">
-        <v>82.714285714285694</v>
-      </c>
-      <c r="G5" s="1">
-        <v>68.571428571428598</v>
-      </c>
-      <c r="H5" s="1">
-        <v>8.5714285714285694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="E24" s="5">
+        <v>103.28571428571399</v>
+      </c>
+      <c r="F24" s="5">
+        <v>37.142857142857103</v>
+      </c>
+      <c r="G24" s="5">
+        <v>51.714285714285701</v>
+      </c>
+      <c r="H24" s="5">
+        <v>5.5714285714285703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B25" s="5">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5">
+        <v>26.285714285714299</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10.285714285714301</v>
+      </c>
+      <c r="F26" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5">
+        <v>46.428571428571402</v>
+      </c>
+      <c r="C27" s="5">
+        <v>14.4285714285714</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>12.714285714285699</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5.1428571428571397</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3.71428571428571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G6" s="1">
+      <c r="C28" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1820.5714285714243</v>
+      </c>
+      <c r="C29" s="5">
+        <v>226.71428571428598</v>
+      </c>
+      <c r="D29" s="5">
+        <v>25.285714285714242</v>
+      </c>
+      <c r="E29" s="5">
+        <v>9.571428571428573</v>
+      </c>
+      <c r="F29" s="5">
+        <v>800.28571428571422</v>
+      </c>
+      <c r="G29" s="5">
+        <v>190.28571428571476</v>
+      </c>
+      <c r="H29" s="5">
+        <v>35.142857142857139</v>
+      </c>
+      <c r="I29" s="6">
+        <f>SUM(C29:H29)</f>
+        <v>1287.2857142857149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1464.2857142857099</v>
+      </c>
+      <c r="C30" s="5">
+        <v>158.71428571428601</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20.1428571428571</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>638.857142857143</v>
+      </c>
+      <c r="G30" s="5">
+        <v>163.57142857142901</v>
+      </c>
+      <c r="H30" s="5">
+        <v>21.1428571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5.1428571428571397</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5">
+        <v>105</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5.8571428571428603</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.4285714285714299</v>
+      </c>
+      <c r="F33" s="5">
+        <v>48.142857142857103</v>
+      </c>
+      <c r="G33" s="5">
+        <v>8.71428571428571</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34" s="5">
+        <v>245.71428571428601</v>
+      </c>
+      <c r="C34" s="5">
+        <v>61.714285714285701</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4.71428571428571</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F34" s="5">
+        <v>111.142857142857</v>
+      </c>
+      <c r="G34" s="5">
+        <v>17.571428571428601</v>
+      </c>
+      <c r="H34" s="5">
+        <v>13.8571428571429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2513.4285714285711</v>
+      </c>
+      <c r="C35" s="5">
+        <v>327.42857142857167</v>
+      </c>
+      <c r="D35" s="5">
+        <v>35.285714285714242</v>
+      </c>
+      <c r="E35" s="5">
+        <v>36.285714285714313</v>
+      </c>
+      <c r="F35" s="5">
+        <v>286.28571428571439</v>
+      </c>
+      <c r="G35" s="5">
+        <v>795.28571428571445</v>
+      </c>
+      <c r="H35" s="5">
+        <v>57.857142857142883</v>
+      </c>
+      <c r="I35" s="6">
+        <f>SUM(C35:H35)</f>
+        <v>1538.428571428572</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2062</v>
+      </c>
+      <c r="C36" s="5">
+        <v>249.71428571428601</v>
+      </c>
+      <c r="D36" s="5">
+        <v>29.1428571428571</v>
+      </c>
+      <c r="E36" s="5">
+        <v>30.571428571428601</v>
+      </c>
+      <c r="F36" s="5">
+        <v>213.857142857143</v>
+      </c>
+      <c r="G36" s="5">
+        <v>677.857142857143</v>
+      </c>
+      <c r="H36" s="5">
+        <v>40.857142857142897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
         <v>0.28571428571428598</v>
       </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5">
+        <v>9</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2.71428571428571</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>11.1428571428571</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.28571428571429</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B39" s="5">
+        <v>220</v>
+      </c>
+      <c r="C39" s="5">
+        <v>14.1428571428571</v>
+      </c>
+      <c r="D39" s="5">
         <v>1.8571428571428601</v>
       </c>
-      <c r="G7" s="1">
+      <c r="E39" s="5">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="F39" s="5">
+        <v>10.714285714285699</v>
+      </c>
+      <c r="G39" s="5">
+        <v>77.428571428571402</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5">
+        <v>221.28571428571399</v>
+      </c>
+      <c r="C40" s="5">
+        <v>63</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.1428571428571397</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.8571428571428601</v>
+      </c>
+      <c r="F40" s="5">
+        <v>61.428571428571402</v>
+      </c>
+      <c r="G40" s="5">
+        <v>36.857142857142897</v>
+      </c>
+      <c r="H40" s="5">
+        <v>16.714285714285701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>6</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="5">
+        <v>13.857142857142872</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1.571428571428573</v>
+      </c>
+      <c r="G42" s="5">
         <v>2.4285714285714302</v>
       </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="6">
+        <f>SUM(C42:H42)</f>
+        <v>9.7142857142857171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
+        <v>13.285714285714301</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.4285714285714299</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.4285714285714302</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>215.57142857142901</v>
-      </c>
-      <c r="C8" s="1">
-        <v>66.142857142857096</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.4285714285714299</v>
-      </c>
-      <c r="F8" s="1">
-        <v>65.571428571428598</v>
-      </c>
-      <c r="G8" s="1">
-        <v>24.571428571428601</v>
-      </c>
-      <c r="H8" s="1">
-        <v>15.5714285714286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1665.2857142857181</v>
-      </c>
-      <c r="C9" s="1">
-        <v>599.4285714285719</v>
-      </c>
-      <c r="D9" s="1">
-        <v>21.28571428571427</v>
-      </c>
-      <c r="E9" s="1">
-        <v>47.142857142857181</v>
-      </c>
-      <c r="F9" s="1">
-        <v>192.57142857142841</v>
-      </c>
-      <c r="G9" s="1">
-        <v>183.57142857142847</v>
-      </c>
-      <c r="H9" s="1">
-        <v>36.85714285714284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1361.1428571428601</v>
-      </c>
-      <c r="C10" s="1">
-        <v>477.57142857142901</v>
-      </c>
-      <c r="D10" s="1">
-        <v>17.714285714285701</v>
-      </c>
-      <c r="E10" s="1">
-        <v>39.857142857142897</v>
-      </c>
-      <c r="F10" s="1">
-        <v>141.142857142857</v>
-      </c>
-      <c r="G10" s="1">
-        <v>159.142857142857</v>
-      </c>
-      <c r="H10" s="1">
-        <v>29.714285714285701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6.4285714285714297</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.5714285714285701</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>117.71428571428601</v>
-      </c>
-      <c r="C13" s="1">
-        <v>34.571428571428598</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.71428571428571</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8.1428571428571406</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10.285714285714301</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>178.57142857142901</v>
-      </c>
-      <c r="C14" s="1">
-        <v>85.285714285714306</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2.28571428571429</v>
-      </c>
-      <c r="F14" s="1">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1">
-        <v>13.8571428571429</v>
-      </c>
-      <c r="H14" s="1">
-        <v>7.1428571428571397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1631.9999999999957</v>
-      </c>
-      <c r="C16" s="1">
-        <v>194.85714285714263</v>
-      </c>
-      <c r="D16" s="1">
-        <v>392.14285714285717</v>
-      </c>
-      <c r="E16" s="1">
-        <v>10.857142857142856</v>
-      </c>
-      <c r="F16" s="1">
-        <v>178.85714285714329</v>
-      </c>
-      <c r="G16" s="1">
-        <v>148.00000000000026</v>
-      </c>
-      <c r="H16" s="1">
-        <v>29.428571428571399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1342.2857142857099</v>
-      </c>
-      <c r="C17" s="1">
-        <v>143.142857142857</v>
-      </c>
-      <c r="D17" s="1">
-        <v>331</v>
-      </c>
-      <c r="E17" s="1">
-        <v>8.1428571428571406</v>
-      </c>
-      <c r="F17" s="1">
-        <v>127.571428571429</v>
-      </c>
-      <c r="G17" s="1">
-        <v>123.71428571428601</v>
-      </c>
-      <c r="H17" s="1">
-        <v>18.428571428571399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.8571428571428603</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B45" s="5">
         <v>0.42857142857142899</v>
       </c>
-      <c r="D19" s="1">
-        <v>1.28571428571429</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>131.42857142857099</v>
-      </c>
-      <c r="C20" s="1">
-        <v>11.1428571428571</v>
-      </c>
-      <c r="D20" s="1">
-        <v>31.285714285714299</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.4285714285714302</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10.714285714285699</v>
-      </c>
-      <c r="G20" s="1">
-        <v>16.428571428571399</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>151.57142857142901</v>
-      </c>
-      <c r="C21" s="1">
-        <v>40.142857142857103</v>
-      </c>
-      <c r="D21" s="1">
-        <v>28.285714285714299</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="F21" s="1">
-        <v>40.285714285714299</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7.28571428571429</v>
-      </c>
-      <c r="H21" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1">
-        <v>430.71428571428584</v>
-      </c>
-      <c r="C23" s="1">
-        <v>64.714285714285722</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3.5714285714285667</v>
-      </c>
-      <c r="E23" s="1">
-        <v>116.85714285714288</v>
-      </c>
-      <c r="F23" s="1">
-        <v>51.142857142857196</v>
-      </c>
-      <c r="G23" s="1">
-        <v>59.714285714285737</v>
-      </c>
-      <c r="H23" s="1">
-        <v>9.7142857142857206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
-        <v>355.857142857143</v>
-      </c>
-      <c r="C24" s="1">
-        <v>47.857142857142897</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.71428571428571</v>
-      </c>
-      <c r="E24" s="1">
-        <v>104</v>
-      </c>
-      <c r="F24" s="1">
-        <v>37.285714285714299</v>
-      </c>
-      <c r="G24" s="1">
-        <v>52.285714285714299</v>
-      </c>
-      <c r="H24" s="1">
-        <v>5.8571428571428603</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.1428571428571399</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>26.285714285714299</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2.1428571428571401</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="E26" s="1">
-        <v>10.285714285714301</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1">
-        <v>47.142857142857103</v>
-      </c>
-      <c r="C27" s="1">
-        <v>14.4285714285714</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2.1428571428571401</v>
-      </c>
-      <c r="F27" s="1">
-        <v>12.8571428571429</v>
-      </c>
-      <c r="G27" s="1">
-        <v>5.28571428571429</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3.8571428571428599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1812.8571428571395</v>
-      </c>
-      <c r="C29" s="1">
-        <v>223.99999999999972</v>
-      </c>
-      <c r="D29" s="1">
-        <v>25.71428571428568</v>
-      </c>
-      <c r="E29" s="1">
-        <v>9.7142857142857135</v>
-      </c>
-      <c r="F29" s="1">
-        <v>797.28571428571502</v>
-      </c>
-      <c r="G29" s="1">
-        <v>189.14285714285714</v>
-      </c>
-      <c r="H29" s="1">
-        <v>34.285714285714342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1461.8571428571399</v>
-      </c>
-      <c r="C30" s="1">
-        <v>158.28571428571399</v>
-      </c>
-      <c r="D30" s="1">
-        <v>20.428571428571399</v>
-      </c>
-      <c r="E30" s="1">
-        <v>8.1428571428571406</v>
-      </c>
-      <c r="F30" s="1">
-        <v>637.71428571428601</v>
-      </c>
-      <c r="G30" s="1">
-        <v>163</v>
-      </c>
-      <c r="H30" s="1">
-        <v>20.8571428571429</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5.28571428571429</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1">
-        <v>104.857142857143</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5.71428571428571</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1.4285714285714299</v>
-      </c>
-      <c r="F33" s="1">
-        <v>47.857142857142897</v>
-      </c>
-      <c r="G33" s="1">
-        <v>8.71428571428571</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>5</v>
-      </c>
-      <c r="B34" s="1">
-        <v>240.42857142857099</v>
-      </c>
-      <c r="C34" s="1">
-        <v>59.571428571428598</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4.71428571428571</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="F34" s="1">
-        <v>109.571428571429</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="C45" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="1">
-        <v>13.285714285714301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2506.857142857139</v>
-      </c>
-      <c r="C35" s="1">
-        <v>326.28571428571479</v>
-      </c>
-      <c r="D35" s="1">
-        <v>34.714285714285744</v>
-      </c>
-      <c r="E35" s="1">
-        <v>36.14285714285711</v>
-      </c>
-      <c r="F35" s="1">
-        <v>284.14285714285677</v>
-      </c>
-      <c r="G35" s="1">
-        <v>794.14285714285722</v>
-      </c>
-      <c r="H35" s="1">
-        <v>57.999999999999986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2056.2857142857101</v>
-      </c>
-      <c r="C36" s="1">
-        <v>248.57142857142901</v>
-      </c>
-      <c r="D36" s="1">
-        <v>28.571428571428601</v>
-      </c>
-      <c r="E36" s="1">
-        <v>30.428571428571399</v>
-      </c>
-      <c r="F36" s="1">
-        <v>212.42857142857099</v>
-      </c>
-      <c r="G36" s="1">
-        <v>676.857142857143</v>
-      </c>
-      <c r="H36" s="1">
-        <v>41.285714285714299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1">
-        <v>8.71428571428571</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2.71428571428571</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>4</v>
-      </c>
-      <c r="B39" s="1">
-        <v>220.857142857143</v>
-      </c>
-      <c r="C39" s="1">
-        <v>14.285714285714301</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3.71428571428571</v>
-      </c>
-      <c r="F39" s="1">
-        <v>10.8571428571429</v>
-      </c>
-      <c r="G39" s="1">
-        <v>77.428571428571402</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1">
-        <v>219.857142857143</v>
-      </c>
-      <c r="C40" s="1">
-        <v>62.857142857142897</v>
-      </c>
-      <c r="D40" s="1">
-        <v>4</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.8571428571428601</v>
-      </c>
-      <c r="F40" s="1">
-        <v>60.571428571428598</v>
-      </c>
-      <c r="G40" s="1">
-        <v>36.714285714285701</v>
-      </c>
-      <c r="H40" s="1">
-        <v>16.428571428571399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>6</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="1">
-        <v>13.857142857142872</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3.1428571428571428</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.571428571428573</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2.4285714285714302</v>
-      </c>
-      <c r="H42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1">
-        <v>13.285714285714301</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1.4285714285714299</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2.4285714285714302</v>
-      </c>
-      <c r="H43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>4</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>5</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="1">
-        <v>8631.1428571428478</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1551.5714285714291</v>
-      </c>
-      <c r="D46" s="1">
-        <v>501.28571428571428</v>
-      </c>
-      <c r="E46" s="1">
-        <v>224.71428571428572</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1656.0000000000005</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1472.8571428571429</v>
-      </c>
-      <c r="H46" s="1">
-        <v>194.42857142857144</v>
+      <c r="B46" s="5">
+        <v>8625.8571428571413</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1551.8571428571431</v>
+      </c>
+      <c r="D46" s="5">
+        <v>500.85714285714312</v>
+      </c>
+      <c r="E46" s="5">
+        <v>223.71428571428544</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1656.8571428571429</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1471.8571428571431</v>
+      </c>
+      <c r="H46" s="5">
+        <v>193.28571428571422</v>
+      </c>
+      <c r="I46" s="6">
+        <f>SUM(C46:H46)</f>
+        <v>5598.4285714285725</v>
       </c>
     </row>
   </sheetData>
@@ -3030,15 +2848,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -3067,40 +2882,40 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>341.857142857143</v>
+        <v>309.28571428571399</v>
       </c>
       <c r="D2">
-        <v>70.571428571428598</v>
+        <v>63.857142857142897</v>
       </c>
       <c r="E2">
-        <v>16.1428571428571</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="F2">
-        <v>2.5714285714285698</v>
+        <v>2.4285714285714302</v>
       </c>
       <c r="G2">
-        <v>82.714285714285694</v>
+        <v>74.142857142857096</v>
       </c>
       <c r="H2">
-        <v>68.571428571428598</v>
+        <v>62.142857142857103</v>
       </c>
       <c r="I2">
-        <v>8.5714285714285694</v>
+        <v>7.71428571428571</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="D3">
         <v>0.14285714285714299</v>
@@ -3115,7 +2930,7 @@
         <v>0.28571428571428598</v>
       </c>
       <c r="H3">
-        <v>0.28571428571428598</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -3125,26 +2940,26 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>11.1428571428571</v>
+        <v>10.285714285714301</v>
       </c>
       <c r="D4">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="E4">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1.5714285714285701</v>
+      </c>
+      <c r="H4">
         <v>2.28571428571429</v>
-      </c>
-      <c r="E4">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1.8571428571428601</v>
-      </c>
-      <c r="H4">
-        <v>2.4285714285714302</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3154,65 +2969,65 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>215.57142857142901</v>
+        <v>201.71428571428601</v>
       </c>
       <c r="D5">
-        <v>66.142857142857096</v>
+        <v>61.857142857142897</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6.5714285714285703</v>
       </c>
       <c r="F5">
         <v>1.4285714285714299</v>
       </c>
       <c r="G5">
-        <v>65.571428571428598</v>
+        <v>61.142857142857103</v>
       </c>
       <c r="H5">
-        <v>24.571428571428601</v>
+        <v>23</v>
       </c>
       <c r="I5">
-        <v>15.5714285714286</v>
+        <v>14.1428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1361.1428571428601</v>
+        <v>1379</v>
       </c>
       <c r="D6">
-        <v>477.57142857142901</v>
+        <v>481.28571428571399</v>
       </c>
       <c r="E6">
-        <v>17.714285714285701</v>
+        <v>18.571428571428601</v>
       </c>
       <c r="F6">
-        <v>39.857142857142897</v>
+        <v>40.142857142857103</v>
       </c>
       <c r="G6">
-        <v>141.142857142857</v>
+        <v>145.57142857142901</v>
       </c>
       <c r="H6">
-        <v>159.142857142857</v>
+        <v>162.857142857143</v>
       </c>
       <c r="I6">
-        <v>29.714285714285701</v>
+        <v>29.8571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7">
@@ -3241,7 +3056,7 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8">
@@ -3270,20 +3085,20 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9">
         <v>117.71428571428601</v>
       </c>
       <c r="D9">
-        <v>34.571428571428598</v>
+        <v>34.714285714285701</v>
       </c>
       <c r="E9">
         <v>0.57142857142857095</v>
       </c>
       <c r="F9">
-        <v>4.71428571428571</v>
+        <v>4.5714285714285703</v>
       </c>
       <c r="G9">
         <v>8.1428571428571406</v>
@@ -3299,14 +3114,14 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>178.57142857142901</v>
+        <v>184.28571428571399</v>
       </c>
       <c r="D10">
-        <v>85.285714285714306</v>
+        <v>87.285714285714306</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -3315,20 +3130,20 @@
         <v>2.28571428571429</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>44.857142857142897</v>
       </c>
       <c r="H10">
-        <v>13.8571428571429</v>
+        <v>14.8571428571429</v>
       </c>
       <c r="I10">
-        <v>7.1428571428571397</v>
+        <v>7.8571428571428603</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11">
@@ -3357,36 +3172,36 @@
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1342.2857142857099</v>
+        <v>1347.7142857142901</v>
       </c>
       <c r="D12">
-        <v>143.142857142857</v>
+        <v>144.142857142857</v>
       </c>
       <c r="E12">
-        <v>331</v>
+        <v>331.71428571428601</v>
       </c>
       <c r="F12">
         <v>8.1428571428571406</v>
       </c>
       <c r="G12">
-        <v>127.571428571429</v>
+        <v>129.42857142857099</v>
       </c>
       <c r="H12">
-        <v>123.71428571428601</v>
+        <v>124.428571428571</v>
       </c>
       <c r="I12">
-        <v>18.428571428571399</v>
+        <v>18.285714285714299</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
       <c r="C13">
@@ -3415,11 +3230,11 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>5.8571428571428603</v>
+        <v>5.71428571428571</v>
       </c>
       <c r="D14">
         <v>0.42857142857142899</v>
@@ -3444,26 +3259,26 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>131.42857142857099</v>
+        <v>132.142857142857</v>
       </c>
       <c r="D15">
-        <v>11.1428571428571</v>
+        <v>11.285714285714301</v>
       </c>
       <c r="E15">
-        <v>31.285714285714299</v>
+        <v>31.428571428571399</v>
       </c>
       <c r="F15">
         <v>2.4285714285714302</v>
       </c>
       <c r="G15">
-        <v>10.714285714285699</v>
+        <v>10.8571428571429</v>
       </c>
       <c r="H15">
-        <v>16.428571428571399</v>
+        <v>16.571428571428601</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3473,36 +3288,36 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>151.57142857142901</v>
+        <v>153.57142857142901</v>
       </c>
       <c r="D16">
-        <v>40.142857142857103</v>
+        <v>40.857142857142897</v>
       </c>
       <c r="E16">
-        <v>28.285714285714299</v>
+        <v>28.428571428571399</v>
       </c>
       <c r="F16">
         <v>0.14285714285714299</v>
       </c>
       <c r="G16">
-        <v>40.285714285714299</v>
+        <v>41.285714285714299</v>
       </c>
       <c r="H16">
-        <v>7.28571428571429</v>
+        <v>7.4285714285714297</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>11.1428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>6</v>
       </c>
       <c r="C17">
@@ -3531,36 +3346,36 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>355.857142857143</v>
+        <v>352.857142857143</v>
       </c>
       <c r="D18">
-        <v>47.857142857142897</v>
+        <v>47.714285714285701</v>
       </c>
       <c r="E18">
-        <v>2.71428571428571</v>
+        <v>2.5714285714285698</v>
       </c>
       <c r="F18">
-        <v>104</v>
+        <v>103.28571428571399</v>
       </c>
       <c r="G18">
-        <v>37.285714285714299</v>
+        <v>37.142857142857103</v>
       </c>
       <c r="H18">
-        <v>52.285714285714299</v>
+        <v>51.714285714285701</v>
       </c>
       <c r="I18">
-        <v>5.8571428571428603</v>
+        <v>5.5714285714285703</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
       <c r="C19">
@@ -3589,7 +3404,7 @@
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20">
@@ -3618,11 +3433,11 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>47.142857142857103</v>
+        <v>46.428571428571402</v>
       </c>
       <c r="D21">
         <v>14.4285714285714</v>
@@ -3631,23 +3446,23 @@
         <v>0.71428571428571397</v>
       </c>
       <c r="F21">
-        <v>2.1428571428571401</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>12.8571428571429</v>
+        <v>12.714285714285699</v>
       </c>
       <c r="H21">
-        <v>5.28571428571429</v>
+        <v>5.1428571428571397</v>
       </c>
       <c r="I21">
-        <v>3.8571428571428599</v>
+        <v>3.71428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>6</v>
       </c>
       <c r="C22">
@@ -3660,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.14285714285714299</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3676,36 +3491,36 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1461.8571428571399</v>
+        <v>1464.2857142857099</v>
       </c>
       <c r="D23">
-        <v>158.28571428571399</v>
+        <v>158.71428571428601</v>
       </c>
       <c r="E23">
-        <v>20.428571428571399</v>
+        <v>20.1428571428571</v>
       </c>
       <c r="F23">
-        <v>8.1428571428571406</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>637.71428571428601</v>
+        <v>638.857142857143</v>
       </c>
       <c r="H23">
-        <v>163</v>
+        <v>163.57142857142901</v>
       </c>
       <c r="I23">
-        <v>20.8571428571429</v>
+        <v>21.1428571428571</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>2</v>
       </c>
       <c r="C24">
@@ -3734,11 +3549,11 @@
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>5.28571428571429</v>
+        <v>5.1428571428571397</v>
       </c>
       <c r="D25">
         <v>0.42857142857142899</v>
@@ -3763,23 +3578,23 @@
       <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>104.857142857143</v>
+        <v>105</v>
       </c>
       <c r="D26">
-        <v>5.71428571428571</v>
+        <v>5.8571428571428603</v>
       </c>
       <c r="E26">
-        <v>0.57142857142857095</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="F26">
         <v>1.4285714285714299</v>
       </c>
       <c r="G26">
-        <v>47.857142857142897</v>
+        <v>48.142857142857103</v>
       </c>
       <c r="H26">
         <v>8.71428571428571</v>
@@ -3792,14 +3607,14 @@
       <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>240.42857142857099</v>
+        <v>245.71428571428601</v>
       </c>
       <c r="D27">
-        <v>59.571428571428598</v>
+        <v>61.714285714285701</v>
       </c>
       <c r="E27">
         <v>4.71428571428571</v>
@@ -3808,49 +3623,49 @@
         <v>0.14285714285714299</v>
       </c>
       <c r="G27">
-        <v>109.571428571429</v>
+        <v>111.142857142857</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>17.571428571428601</v>
       </c>
       <c r="I27">
-        <v>13.285714285714301</v>
+        <v>13.8571428571429</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2056.2857142857101</v>
+        <v>2062</v>
       </c>
       <c r="D28">
-        <v>248.57142857142901</v>
+        <v>249.71428571428601</v>
       </c>
       <c r="E28">
-        <v>28.571428571428601</v>
+        <v>29.1428571428571</v>
       </c>
       <c r="F28">
-        <v>30.428571428571399</v>
+        <v>30.571428571428601</v>
       </c>
       <c r="G28">
-        <v>212.42857142857099</v>
+        <v>213.857142857143</v>
       </c>
       <c r="H28">
-        <v>676.857142857143</v>
+        <v>677.857142857143</v>
       </c>
       <c r="I28">
-        <v>41.285714285714299</v>
+        <v>40.857142857142897</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>2</v>
       </c>
       <c r="C29">
@@ -3879,11 +3694,11 @@
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>8.71428571428571</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>0.57142857142857095</v>
@@ -3908,23 +3723,23 @@
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>220.857142857143</v>
+        <v>220</v>
       </c>
       <c r="D31">
-        <v>14.285714285714301</v>
+        <v>14.1428571428571</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1.8571428571428601</v>
       </c>
       <c r="F31">
         <v>3.71428571428571</v>
       </c>
       <c r="G31">
-        <v>10.8571428571429</v>
+        <v>10.714285714285699</v>
       </c>
       <c r="H31">
         <v>77.428571428571402</v>
@@ -3937,36 +3752,36 @@
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>5</v>
       </c>
       <c r="C32">
-        <v>219.857142857143</v>
+        <v>221.28571428571399</v>
       </c>
       <c r="D32">
-        <v>62.857142857142897</v>
+        <v>63</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>4.1428571428571397</v>
       </c>
       <c r="F32">
         <v>1.8571428571428601</v>
       </c>
       <c r="G32">
-        <v>60.571428571428598</v>
+        <v>61.428571428571402</v>
       </c>
       <c r="H32">
-        <v>36.714285714285701</v>
+        <v>36.857142857142897</v>
       </c>
       <c r="I32">
-        <v>16.428571428571399</v>
+        <v>16.714285714285701</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>6</v>
       </c>
       <c r="C33">
@@ -3995,7 +3810,7 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34">
@@ -4024,7 +3839,7 @@
       <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>4</v>
       </c>
       <c r="C35">
@@ -4053,7 +3868,7 @@
       <c r="A36" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>5</v>
       </c>
       <c r="C36">
@@ -4080,5 +3895,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>